--- a/biology/Botanique/Tamonea_spicata/Tamonea_spicata.xlsx
+++ b/biology/Botanique/Tamonea_spicata/Tamonea_spicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamonea spicata est une espèce d'arbuste sud-américaine appartenant à la famille des Verbenaceae (famille des verveines). 
-Il est connu en sous le nom de wild thyme (Nicaragua)[4].
+Il est connu en sous le nom de wild thyme (Nicaragua).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamonea spicata est une herbacée ou un sous-arbrisseau. Ses tiges fines et les branches, plus ou moins finement pileuses, sont couvertes de poils uncinés, nettement tétragonales, et plus ou moins marginées à proximité des feuilles avec 2 côtes et 3 sillons. Les pétioles très minces, mesurent 3 à 6 mm de long, sont assez densément hirsutes. Le limbe mince-coriace, est ovale, long de 7-16 mm pour 3-12 mm de large, a des marges assez grossièrement incisée-dentelée avec des dents très aiguës, de bords ciliés, a l'apex obtus, est tronqué à la base, est peu poilu sur la face supérieure (poils épars), mais est densément hirsute sur la face inférieure, (particulièrement le long des nervures). L'inflorescence est un racème axillaire long de 2,5-8 cm et comportant 2 à 8 fleurs, ascendantes. Les pédicelles uncinés-pileux mesurent environ 2 mm de long. Le calice à l'anthèse mesure environ 4 mm de long et 1-1,5 mm de large. La corolle, longue d'environ 7 mm est  bleues ou violettes, et jaune à l'intérieur de la gorge[5]. Lors de la fructification, le calice mince et translucide est étalé-campanulé, mesure 4 mm de long et de large, porte 5 côtes proéminentes, légèrement couvert de poils uncinés, faisant saillie d'environ 1 mm sur la marge. La drupe noire glabre et luisante mesure environ 3 mm de long et de large[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamonea spicata est une herbacée ou un sous-arbrisseau. Ses tiges fines et les branches, plus ou moins finement pileuses, sont couvertes de poils uncinés, nettement tétragonales, et plus ou moins marginées à proximité des feuilles avec 2 côtes et 3 sillons. Les pétioles très minces, mesurent 3 à 6 mm de long, sont assez densément hirsutes. Le limbe mince-coriace, est ovale, long de 7-16 mm pour 3-12 mm de large, a des marges assez grossièrement incisée-dentelée avec des dents très aiguës, de bords ciliés, a l'apex obtus, est tronqué à la base, est peu poilu sur la face supérieure (poils épars), mais est densément hirsute sur la face inférieure, (particulièrement le long des nervures). L'inflorescence est un racème axillaire long de 2,5-8 cm et comportant 2 à 8 fleurs, ascendantes. Les pédicelles uncinés-pileux mesurent environ 2 mm de long. Le calice à l'anthèse mesure environ 4 mm de long et 1-1,5 mm de large. La corolle, longue d'environ 7 mm est  bleues ou violettes, et jaune à l'intérieur de la gorge. Lors de la fructification, le calice mince et translucide est étalé-campanulé, mesure 4 mm de long et de large, porte 5 côtes proéminentes, légèrement couvert de poils uncinés, faisant saillie d'environ 1 mm sur la marge. La drupe noire glabre et luisante mesure environ 3 mm de long et de large.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Tamonea spicata du Mexique au Brésil en passant par l'Amérique centrale, le Venezuela, le Guyana, le Suriname et la Guyane. Il pousse entre 50 et 1 400 m d'altitude, autour des zones urbanisées, dans les savanes à Trachypogon, et les zones perturbées[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Tamonea spicata du Mexique au Brésil en passant par l'Amérique centrale, le Venezuela, le Guyana, le Suriname et la Guyane. Il pousse entre 50 et 1 400 m d'altitude, autour des zones urbanisées, dans les savanes à Trachypogon, et les zones perturbées.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,10 +618,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamonea spicata serait toxique pour le bétail[5]. 
-Tamonea spicata serait employé comme épice chez les Garifuna de l'est du Nicaragua en tant que « thym sauvage » (wild thyme)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamonea spicata serait toxique pour le bétail. 
+Tamonea spicata serait employé comme épice chez les Garifuna de l'est du Nicaragua en tant que « thym sauvage » (wild thyme).
 </t>
         </is>
       </c>
@@ -632,9 +652,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « TAMONEA ſpicata. (Tabula 268.) 
 Planta annua, pedalis vel bi-pedalis. Caules erecti, tetragoni, nodoſi. Folia oppoſita, petiolata, tomentoſa, ſubovata, dentata. Flores ſpicati, alterni, ſpicis oppoſitis, axillaribus : pedunculus cujuſque floris ex axilla ſquamula? exfurgit. Corolla cazruiea. Bacca nigra, pulpoſa. 
 Floret diverſis anni temporibus. 
